--- a/data/xls/2009-12-01/COMPLETED_20100324-EER-rep-Abbott-Jul-Dec-2009.xlsx
+++ b/data/xls/2009-12-01/COMPLETED_20100324-EER-rep-Abbott-Jul-Dec-2009.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="25440" windowHeight="20820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -17857,7 +17857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -17938,17 +17938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -17968,22 +17957,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -18029,9 +18007,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -18044,16 +18019,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18071,13 +18040,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18087,9 +18053,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18395,29 +18358,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J613"/>
+  <dimension ref="A1:H613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="1.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -18428,2362 +18387,2174 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="37" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="37" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="6" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="6" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="31" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="31" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="39" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="52" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="39" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="39" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="26" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="59" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="33" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="41" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="26" customHeight="1">
+      <c r="A30" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="26" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="26" customHeight="1">
+      <c r="A33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19" customHeight="1">
+      <c r="A34" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="33" customHeight="1">
+      <c r="A35" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="33" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19" customHeight="1">
+      <c r="A37" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="33" customHeight="1">
+      <c r="A38" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="39" customHeight="1">
+      <c r="A39" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33" customHeight="1">
+      <c r="A40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="39" customHeight="1">
+      <c r="A41" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19" customHeight="1">
+      <c r="A42" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19" customHeight="1">
+      <c r="A43" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19" customHeight="1">
+      <c r="A44" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19" customHeight="1">
+      <c r="A45" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19" customHeight="1">
+      <c r="A46" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19" customHeight="1">
+      <c r="A47" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="26" customHeight="1">
+      <c r="A48" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19" customHeight="1">
+      <c r="A49" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19" customHeight="1">
+      <c r="A50" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19" customHeight="1">
+      <c r="A51" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19" customHeight="1">
+      <c r="A52" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13" customHeight="1">
+      <c r="A53" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13" customHeight="1">
+      <c r="A54" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19" customHeight="1">
+      <c r="A55" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19" customHeight="1">
+      <c r="A56" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12" customHeight="1">
+      <c r="A57" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8" ht="13" customHeight="1">
+      <c r="A58" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="12" customHeight="1">
+      <c r="A59" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:8" ht="59" customHeight="1">
+      <c r="A60" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="33" customHeight="1">
+      <c r="A61" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="33" customHeight="1">
+      <c r="A62" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19" customHeight="1">
+      <c r="A63" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="26" customHeight="1">
+      <c r="A64" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="59" customHeight="1">
+      <c r="A65" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="86" customHeight="1">
+      <c r="A66" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19" customHeight="1">
+      <c r="A67" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="33" customHeight="1">
+      <c r="A68" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="32" customHeight="1">
+      <c r="A69" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="26" customHeight="1">
+      <c r="A70" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="1" t="s">
+      <c r="F70" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="25" customHeight="1">
+      <c r="A71" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="50" customHeight="1">
+      <c r="A72" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="19" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="39" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="52" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="26" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="39" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="39" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="33" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="33" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="26" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="39" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="29" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="33" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="39" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="32" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="26" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="33" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="33" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="26" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="59" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="33" customHeight="1">
-      <c r="A27" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="41" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="34" customHeight="1">
-      <c r="A29" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:10" ht="26" customHeight="1">
-      <c r="A30" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" ht="33" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="1:10" ht="26" customHeight="1">
-      <c r="A32" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="1:10" ht="26" customHeight="1">
-      <c r="A33" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="19" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="1:10" ht="33" customHeight="1">
-      <c r="A35" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="1:10" ht="33" customHeight="1">
-      <c r="A36" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" spans="1:10" ht="19" customHeight="1">
-      <c r="A37" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J37" s="25"/>
-    </row>
-    <row r="38" spans="1:10" ht="33" customHeight="1">
-      <c r="A38" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J38" s="27"/>
-    </row>
-    <row r="39" spans="1:10" ht="39" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="J39" s="27"/>
-    </row>
-    <row r="40" spans="1:10" ht="33" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="27"/>
-    </row>
-    <row r="41" spans="1:10" ht="39" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="J41" s="27"/>
-    </row>
-    <row r="42" spans="1:10" ht="19" customHeight="1">
-      <c r="A42" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" s="25"/>
-    </row>
-    <row r="43" spans="1:10" ht="19" customHeight="1">
-      <c r="A43" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="J43" s="25"/>
-    </row>
-    <row r="44" spans="1:10" ht="19" customHeight="1">
-      <c r="A44" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="J44" s="25"/>
-    </row>
-    <row r="45" spans="1:10" ht="19" customHeight="1">
-      <c r="A45" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="25"/>
-    </row>
-    <row r="46" spans="1:10" ht="19" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="J46" s="25"/>
-    </row>
-    <row r="47" spans="1:10" ht="19" customHeight="1">
-      <c r="A47" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="J47" s="25"/>
-    </row>
-    <row r="48" spans="1:10" ht="26" customHeight="1">
-      <c r="A48" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="J48" s="27"/>
-    </row>
-    <row r="49" spans="1:10" ht="19" customHeight="1">
-      <c r="A49" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="J49" s="25"/>
-    </row>
-    <row r="50" spans="1:10" ht="19" customHeight="1">
-      <c r="A50" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J50" s="25"/>
-    </row>
-    <row r="51" spans="1:10" ht="19" customHeight="1">
-      <c r="A51" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="J51" s="25"/>
-    </row>
-    <row r="52" spans="1:10" ht="19" customHeight="1">
-      <c r="A52" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J52" s="25"/>
-    </row>
-    <row r="53" spans="1:10" ht="13" customHeight="1">
-      <c r="A53" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="J53" s="25"/>
-    </row>
-    <row r="54" spans="1:10" ht="13" customHeight="1">
-      <c r="A54" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="J54" s="25"/>
-    </row>
-    <row r="55" spans="1:10" ht="19" customHeight="1">
-      <c r="A55" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="J55" s="25"/>
-    </row>
-    <row r="56" spans="1:10" ht="19" customHeight="1">
-      <c r="A56" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="J56" s="25"/>
-    </row>
-    <row r="57" spans="1:10" ht="12" customHeight="1">
-      <c r="A57" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="25"/>
-    </row>
-    <row r="58" spans="1:10" ht="13" customHeight="1">
-      <c r="A58" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="1:10" ht="12" customHeight="1">
-      <c r="A59" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31"/>
-    </row>
-    <row r="60" spans="1:10" ht="59" customHeight="1">
-      <c r="A60" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="1:10" ht="33" customHeight="1">
-      <c r="A61" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="1:10" ht="33" customHeight="1">
-      <c r="A62" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="1:10" ht="19" customHeight="1">
-      <c r="A63" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="J63" s="17"/>
-    </row>
-    <row r="64" spans="1:10" ht="26" customHeight="1">
-      <c r="A64" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="1:10" ht="59" customHeight="1">
-      <c r="A65" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J65" s="17"/>
-    </row>
-    <row r="66" spans="1:10" ht="86" customHeight="1">
-      <c r="A66" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="J66" s="17"/>
-    </row>
-    <row r="67" spans="1:10" ht="19" customHeight="1">
-      <c r="A67" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J67" s="17"/>
-    </row>
-    <row r="68" spans="1:10" ht="33" customHeight="1">
-      <c r="A68" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:10" ht="32" customHeight="1">
-      <c r="A69" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J69" s="17"/>
-    </row>
-    <row r="70" spans="1:10" ht="26" customHeight="1">
-      <c r="A70" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="J70" s="17"/>
-    </row>
-    <row r="71" spans="1:10" ht="25" customHeight="1">
-      <c r="A71" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="J71" s="17"/>
-    </row>
-    <row r="72" spans="1:10" ht="50" customHeight="1">
-      <c r="A72" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I72" s="16" t="s">
+      <c r="H72" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="J72" s="17"/>
-    </row>
-    <row r="73" spans="1:10" ht="135" customHeight="1">
-      <c r="A73" s="26" t="s">
+    </row>
+    <row r="73" spans="1:8" ht="135" customHeight="1">
+      <c r="A73" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="26" t="s">
+      <c r="B73" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D73" s="27"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F73" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="H73" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="J73" s="17"/>
-    </row>
-    <row r="74" spans="1:10" ht="7" customHeight="1">
+    </row>
+    <row r="74" spans="1:8" ht="7" customHeight="1">
       <c r="A74" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="7" customHeight="1">
+    <row r="75" spans="1:8" ht="7" customHeight="1">
       <c r="A75" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="50" customHeight="1">
-      <c r="A76" s="26" t="s">
+    <row r="76" spans="1:8" ht="50" customHeight="1">
+      <c r="A76" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="26" t="s">
+      <c r="B76" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="4" t="s">
+      <c r="C76" s="24"/>
+      <c r="D76" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>318</v>
       </c>
+      <c r="F76" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="G76" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H76" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="I76" s="26" t="s">
+      <c r="H76" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="J76" s="27"/>
-    </row>
-    <row r="77" spans="1:10" ht="50" customHeight="1">
-      <c r="A77" s="24" t="s">
+    </row>
+    <row r="77" spans="1:8" ht="50" customHeight="1">
+      <c r="A77" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="3" t="s">
+      <c r="C77" s="22"/>
+      <c r="D77" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="E77" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="F77" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="50" customHeight="1">
+      <c r="A78" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="50" customHeight="1">
+      <c r="A79" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H77" s="6" t="s">
+      <c r="F79" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="50" customHeight="1">
+      <c r="A80" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="50" customHeight="1">
+      <c r="A81" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="50" customHeight="1">
+      <c r="A82" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="26" customHeight="1">
+      <c r="A83" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="19" customHeight="1">
+      <c r="A84" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="29" customHeight="1">
+      <c r="A85" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="I77" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="J77" s="27"/>
-    </row>
-    <row r="78" spans="1:10" ht="50" customHeight="1">
-      <c r="A78" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="D78" s="27"/>
-      <c r="E78" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I78" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="J78" s="27"/>
-    </row>
-    <row r="79" spans="1:10" ht="50" customHeight="1">
-      <c r="A79" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H79" s="6" t="s">
+      <c r="H85" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="60" customHeight="1">
+      <c r="A86" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="39" customHeight="1">
+      <c r="A87" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="26" customHeight="1">
+      <c r="A88" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="26" customHeight="1">
+      <c r="A89" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="39" customHeight="1">
+      <c r="A90" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="32" customHeight="1">
+      <c r="A91" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="26" customHeight="1">
+      <c r="A92" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C92" s="22"/>
+      <c r="D92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="26" customHeight="1">
+      <c r="A93" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="19" customHeight="1">
+      <c r="A94" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="19" customHeight="1">
+      <c r="A95" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="19" customHeight="1">
+      <c r="A96" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I79" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="J79" s="27"/>
-    </row>
-    <row r="80" spans="1:10" ht="50" customHeight="1">
-      <c r="A80" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="I80" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="J80" s="27"/>
-    </row>
-    <row r="81" spans="1:10" ht="50" customHeight="1">
-      <c r="A81" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I81" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="J81" s="27"/>
-    </row>
-    <row r="82" spans="1:10" ht="50" customHeight="1">
-      <c r="A82" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="I82" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="J82" s="27"/>
-    </row>
-    <row r="83" spans="1:10" ht="26" customHeight="1">
-      <c r="A83" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="I83" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J83" s="25"/>
-    </row>
-    <row r="84" spans="1:10" ht="19" customHeight="1">
-      <c r="A84" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="J84" s="25"/>
-    </row>
-    <row r="85" spans="1:10" ht="29" customHeight="1">
-      <c r="A85" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="I85" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="J85" s="27"/>
-    </row>
-    <row r="86" spans="1:10" ht="60" customHeight="1">
-      <c r="A86" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I86" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="J86" s="27"/>
-    </row>
-    <row r="87" spans="1:10" ht="39" customHeight="1">
-      <c r="A87" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="J87" s="17"/>
-    </row>
-    <row r="88" spans="1:10" ht="26" customHeight="1">
-      <c r="A88" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="I88" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="J88" s="17"/>
-    </row>
-    <row r="89" spans="1:10" ht="26" customHeight="1">
-      <c r="A89" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I89" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="J89" s="17"/>
-    </row>
-    <row r="90" spans="1:10" ht="39" customHeight="1">
-      <c r="A90" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="I90" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="J90" s="17"/>
-    </row>
-    <row r="91" spans="1:10" ht="32" customHeight="1">
-      <c r="A91" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="J91" s="17"/>
-    </row>
-    <row r="92" spans="1:10" ht="26" customHeight="1">
-      <c r="A92" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I92" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="J92" s="17"/>
-    </row>
-    <row r="93" spans="1:10" ht="26" customHeight="1">
-      <c r="A93" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="I93" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="J93" s="17"/>
-    </row>
-    <row r="94" spans="1:10" ht="19" customHeight="1">
-      <c r="A94" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="I94" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="J94" s="25"/>
-    </row>
-    <row r="95" spans="1:10" ht="19" customHeight="1">
-      <c r="A95" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="J95" s="25"/>
-    </row>
-    <row r="96" spans="1:10" ht="19" customHeight="1">
-      <c r="A96" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="H96" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I96" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="J96" s="25"/>
     </row>
     <row r="97" spans="1:1" ht="7" customHeight="1">
       <c r="A97" t="s">
@@ -21825,2677 +21596,2467 @@
         <v>573</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="7" customHeight="1">
+    <row r="305" spans="1:8" ht="7" customHeight="1">
       <c r="A305" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="52" customHeight="1">
-      <c r="A306" s="16" t="s">
+    <row r="306" spans="1:8" ht="52" customHeight="1">
+      <c r="A306" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="B306" s="17"/>
-      <c r="C306" s="16" t="s">
+      <c r="B306" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="D306" s="17"/>
+      <c r="C306" s="16"/>
+      <c r="D306" s="1" t="s">
+        <v>577</v>
+      </c>
       <c r="E306" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H306" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="39" customHeight="1">
+      <c r="A307" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C307" s="16"/>
+      <c r="D307" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H307" s="15" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="59" customHeight="1">
+      <c r="A308" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C308" s="16"/>
+      <c r="D308" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H308" s="15" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="40" customHeight="1">
+      <c r="A309" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C309" s="16"/>
+      <c r="D309" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H309" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="26" customHeight="1">
+      <c r="A310" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B310" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="C310" s="22"/>
+      <c r="D310" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H310" s="23" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="26" customHeight="1">
+      <c r="A311" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="B311" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="C311" s="22"/>
+      <c r="D311" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H311" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="19" customHeight="1">
+      <c r="A312" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B312" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C312" s="16"/>
+      <c r="D312" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G312" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H312" s="21" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="19" customHeight="1">
+      <c r="A313" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C313" s="16"/>
+      <c r="D313" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H313" s="21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="26" customHeight="1">
+      <c r="A314" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="C314" s="16"/>
+      <c r="D314" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H314" s="23" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="19" customHeight="1">
+      <c r="A315" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="B315" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C315" s="16"/>
+      <c r="D315" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G315" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H315" s="21" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="26" customHeight="1">
+      <c r="A316" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="C316" s="16"/>
+      <c r="D316" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="G316" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="H316" s="23" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="33" customHeight="1">
+      <c r="A317" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="C317" s="16"/>
+      <c r="D317" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="G317" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H317" s="23" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="26" customHeight="1">
+      <c r="A318" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="B318" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C318" s="16"/>
+      <c r="D318" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G318" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H318" s="23" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="24" customHeight="1">
+      <c r="A319" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C319" s="16"/>
+      <c r="D319" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H319" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="26" customHeight="1">
+      <c r="A320" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C320" s="16"/>
+      <c r="D320" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H320" s="23" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="35" customHeight="1">
+      <c r="A321" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C321" s="16"/>
+      <c r="D321" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H321" s="23" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="35" customHeight="1">
+      <c r="A322" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B322" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="C322" s="22"/>
+      <c r="D322" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="H322" s="23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="35" customHeight="1">
+      <c r="A323" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="B323" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="C323" s="22"/>
+      <c r="D323" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H323" s="23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="35" customHeight="1">
+      <c r="A324" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="B324" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C324" s="22"/>
+      <c r="D324" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H324" s="23" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="35" customHeight="1">
+      <c r="A325" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B325" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="C325" s="22"/>
+      <c r="D325" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H325" s="23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="35" customHeight="1">
+      <c r="A326" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B326" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="C326" s="22"/>
+      <c r="D326" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="H326" s="23" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="35" customHeight="1">
+      <c r="A327" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="B327" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="C327" s="22"/>
+      <c r="D327" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H327" s="23" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="26" customHeight="1">
+      <c r="A328" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C328" s="16"/>
+      <c r="D328" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H328" s="23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="6" customHeight="1">
+      <c r="A329" s="15"/>
+      <c r="B329" s="28"/>
+      <c r="C329" s="28"/>
+      <c r="D329" s="28"/>
+      <c r="E329" s="28"/>
+      <c r="F329" s="28"/>
+      <c r="G329" s="28"/>
+      <c r="H329" s="28"/>
+    </row>
+    <row r="330" spans="1:8" ht="6" customHeight="1">
+      <c r="A330" s="29"/>
+      <c r="B330" s="30"/>
+      <c r="C330" s="30"/>
+      <c r="D330" s="30"/>
+      <c r="E330" s="30"/>
+      <c r="F330" s="30"/>
+      <c r="G330" s="30"/>
+      <c r="H330" s="30"/>
+    </row>
+    <row r="331" spans="1:8" ht="37" customHeight="1">
+      <c r="A331" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B331" s="18"/>
+      <c r="C331" s="18"/>
+      <c r="D331" s="18"/>
+      <c r="E331" s="18"/>
+      <c r="F331" s="18"/>
+      <c r="G331" s="18"/>
+      <c r="H331" s="18"/>
+    </row>
+    <row r="332" spans="1:8" ht="6" customHeight="1">
+      <c r="A332" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="20"/>
+      <c r="E332" s="20"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="20"/>
+      <c r="H332" s="20"/>
+    </row>
+    <row r="333" spans="1:8" ht="47" customHeight="1">
+      <c r="A333" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="B333" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="C333" s="16"/>
+      <c r="D333" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H333" s="15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="28" customHeight="1">
+      <c r="A334" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B334" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="C334" s="16"/>
+      <c r="D334" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H334" s="15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="43" customHeight="1">
+      <c r="A335" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C335" s="16"/>
+      <c r="D335" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H335" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="52" customHeight="1">
+      <c r="A336" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C336" s="16"/>
+      <c r="D336" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H336" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="31" customHeight="1">
+      <c r="A337" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="C337" s="16"/>
+      <c r="D337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H337" s="15" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="19" customHeight="1">
+      <c r="A338" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="C338" s="16"/>
+      <c r="D338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" s="15" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="36" customHeight="1">
+      <c r="A339" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C339" s="16"/>
+      <c r="D339" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H339" s="15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="52" customHeight="1">
+      <c r="A340" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B340" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="C340" s="16"/>
+      <c r="D340" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H340" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="25" customHeight="1">
+      <c r="A341" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="C341" s="16"/>
+      <c r="D341" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H341" s="15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="52" customHeight="1">
+      <c r="A342" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="C342" s="16"/>
+      <c r="D342" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H342" s="15" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="19" customHeight="1">
+      <c r="A343" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="C343" s="16"/>
+      <c r="D343" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="15" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="13" customHeight="1">
+      <c r="A344" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B344" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C344" s="16"/>
+      <c r="D344" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H344" s="15" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="13" customHeight="1">
+      <c r="A345" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="B345" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="C345" s="16"/>
+      <c r="D345" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H345" s="15" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="13" customHeight="1">
+      <c r="A346" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="B346" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="C346" s="16"/>
+      <c r="D346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="15" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="35" customHeight="1">
+      <c r="A347" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="B347" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="C347" s="16"/>
+      <c r="D347" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H347" s="15" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="30" customHeight="1">
+      <c r="A348" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C348" s="16"/>
+      <c r="D348" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H348" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="52" customHeight="1">
+      <c r="A349" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="B349" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C349" s="16"/>
+      <c r="D349" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="H349" s="15" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="39" customHeight="1">
+      <c r="A350" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="C350" s="16"/>
+      <c r="D350" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F350" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="G350" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H350" s="15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="39" customHeight="1">
+      <c r="A351" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C351" s="16"/>
+      <c r="D351" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="G351" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H351" s="15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="26" customHeight="1">
+      <c r="A352" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="B352" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C352" s="16"/>
+      <c r="D352" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F352" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="G352" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H352" s="15" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="34" customHeight="1">
+      <c r="A353" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="B353" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C353" s="16"/>
+      <c r="D353" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G353" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="H353" s="15" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="67" customHeight="1">
+      <c r="A354" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="B354" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="C354" s="24"/>
+      <c r="D354" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="H354" s="15" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="39" customHeight="1">
+      <c r="A355" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C355" s="16"/>
+      <c r="D355" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H355" s="15" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="39" customHeight="1">
+      <c r="A356" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="B356" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C356" s="16"/>
+      <c r="D356" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F356" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H356" s="15" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="39" customHeight="1">
+      <c r="A357" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C357" s="16"/>
+      <c r="D357" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="G357" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H357" s="15" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="88" customHeight="1">
+      <c r="A358" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="B358" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="C358" s="24"/>
+      <c r="D358" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F358" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H358" s="23" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="88" customHeight="1">
+      <c r="A359" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="B359" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C359" s="22"/>
+      <c r="D359" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="F359" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H359" s="23" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="19" customHeight="1">
+      <c r="A360" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="B360" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C360" s="16"/>
+      <c r="D360" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F360" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="G360" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H360" s="21" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="38" customHeight="1">
+      <c r="A361" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="B361" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C361" s="16"/>
+      <c r="D361" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="G361" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="H361" s="23" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="29" customHeight="1">
+      <c r="A362" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="B362" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="C362" s="22"/>
+      <c r="D362" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H362" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="39" customHeight="1">
+      <c r="A363" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="B363" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="C363" s="24"/>
+      <c r="D363" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F363" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H363" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="19" customHeight="1">
+      <c r="A364" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="B364" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="C364" s="16"/>
+      <c r="D364" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="G364" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H364" s="21" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="53" customHeight="1">
+      <c r="A365" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="B365" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="C365" s="22"/>
+      <c r="D365" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="G365" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H365" s="23" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="53" customHeight="1">
+      <c r="A366" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="B366" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="C366" s="22"/>
+      <c r="D366" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F366" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H366" s="23" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="99" customHeight="1">
+      <c r="A367" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="B367" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="C367" s="24"/>
+      <c r="D367" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G367" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H367" s="23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="53" customHeight="1">
+      <c r="A368" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="B368" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C368" s="16"/>
+      <c r="D368" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H368" s="23" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="26" customHeight="1">
+      <c r="A369" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="B369" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="C369" s="22"/>
+      <c r="D369" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H369" s="23" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="26" customHeight="1">
+      <c r="A370" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="B370" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="C370" s="16"/>
+      <c r="D370" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F370" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H370" s="23" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="33" customHeight="1">
+      <c r="A371" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="B371" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="C371" s="22"/>
+      <c r="D371" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F371" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H371" s="23" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="33" customHeight="1">
+      <c r="A372" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="B372" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="C372" s="22"/>
+      <c r="D372" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="H372" s="23" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="33" customHeight="1">
+      <c r="A373" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="B373" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="C373" s="22"/>
+      <c r="D373" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H373" s="23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="33" customHeight="1">
+      <c r="A374" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="B374" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="C374" s="22"/>
+      <c r="D374" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F374" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H374" s="23" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="33" customHeight="1">
+      <c r="A375" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="B375" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="C375" s="22"/>
+      <c r="D375" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F375" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H375" s="23" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="33" customHeight="1">
+      <c r="A376" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="B376" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="C376" s="16"/>
+      <c r="D376" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F376" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="H376" s="23" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="33" customHeight="1">
+      <c r="A377" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="B377" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="C377" s="16"/>
+      <c r="D377" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="F377" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H377" s="23" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="19" customHeight="1">
+      <c r="A378" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="B378" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="C378" s="16"/>
+      <c r="D378" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F378" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="G378" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H378" s="21" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="19" customHeight="1">
+      <c r="A379" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B379" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="C379" s="16"/>
+      <c r="D379" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F379" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="G379" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H379" s="21" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="19" customHeight="1">
+      <c r="A380" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B380" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="C380" s="16"/>
+      <c r="D380" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F380" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="G380" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H380" s="21" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="19" customHeight="1">
+      <c r="A381" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B381" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="C381" s="16"/>
+      <c r="D381" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="G381" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="H381" s="21" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="26" customHeight="1">
+      <c r="A382" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B382" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="C382" s="16"/>
+      <c r="D382" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F382" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H382" s="23" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="19" customHeight="1">
+      <c r="A383" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B383" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="C383" s="16"/>
+      <c r="D383" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="G383" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H383" s="21" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="19" customHeight="1">
+      <c r="A384" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="B384" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="C384" s="16"/>
+      <c r="D384" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="G384" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H384" s="21" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="19" customHeight="1">
+      <c r="A385" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="B385" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="C385" s="16"/>
+      <c r="D385" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F385" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="G385" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="H385" s="21" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="19" customHeight="1">
+      <c r="A386" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="B386" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="C386" s="22"/>
+      <c r="D386" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="G386" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H386" s="21" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="32" customHeight="1">
+      <c r="A387" s="21" t="s">
+        <v>940</v>
+      </c>
+      <c r="B387" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="C387" s="16"/>
+      <c r="D387" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="G387" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="H387" s="15" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="6" customHeight="1">
+      <c r="A388" s="15"/>
+      <c r="B388" s="28"/>
+      <c r="C388" s="28"/>
+      <c r="D388" s="28"/>
+      <c r="E388" s="28"/>
+      <c r="F388" s="28"/>
+      <c r="G388" s="28"/>
+      <c r="H388" s="28"/>
+    </row>
+    <row r="389" spans="1:8" ht="37" customHeight="1">
+      <c r="A389" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B389" s="18"/>
+      <c r="C389" s="18"/>
+      <c r="D389" s="18"/>
+      <c r="E389" s="18"/>
+      <c r="F389" s="18"/>
+      <c r="G389" s="18"/>
+      <c r="H389" s="18"/>
+    </row>
+    <row r="390" spans="1:8" ht="6" customHeight="1">
+      <c r="A390" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
+      <c r="D390" s="20"/>
+      <c r="E390" s="20"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="20"/>
+      <c r="H390" s="20"/>
+    </row>
+    <row r="391" spans="1:8" ht="41" customHeight="1">
+      <c r="A391" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="B391" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="C391" s="16"/>
+      <c r="D391" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H391" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="71" customHeight="1">
+      <c r="A392" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="B392" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="C392" s="16"/>
+      <c r="D392" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H392" s="15" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="39" customHeight="1">
+      <c r="A393" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="B393" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C393" s="16"/>
+      <c r="D393" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="H393" s="15" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="37" customHeight="1">
+      <c r="A394" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="B394" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="C394" s="16"/>
+      <c r="D394" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H394" s="15" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="39" customHeight="1">
+      <c r="A395" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="B395" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="C395" s="16"/>
+      <c r="D395" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F306" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H306" s="2" t="s">
+      <c r="E395" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H395" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="26" customHeight="1">
+      <c r="A396" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="B396" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="C396" s="16"/>
+      <c r="D396" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="H396" s="23" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="26" customHeight="1">
+      <c r="A397" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="B397" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="C397" s="22"/>
+      <c r="D397" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H397" s="23" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="46" customHeight="1">
+      <c r="A398" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="B398" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="C398" s="16"/>
+      <c r="D398" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="G398" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="I306" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="J306" s="17"/>
-    </row>
-    <row r="307" spans="1:10" ht="39" customHeight="1">
-      <c r="A307" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="B307" s="17"/>
-      <c r="C307" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="D307" s="17"/>
-      <c r="E307" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H307" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="I307" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="J307" s="17"/>
-    </row>
-    <row r="308" spans="1:10" ht="59" customHeight="1">
-      <c r="A308" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="B308" s="17"/>
-      <c r="C308" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="D308" s="17"/>
-      <c r="E308" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H308" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I308" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J308" s="17"/>
-    </row>
-    <row r="309" spans="1:10" ht="40" customHeight="1">
-      <c r="A309" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="B309" s="17"/>
-      <c r="C309" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D309" s="17"/>
-      <c r="E309" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G309" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H309" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I309" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="J309" s="17"/>
-    </row>
-    <row r="310" spans="1:10" ht="26" customHeight="1">
-      <c r="A310" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="B310" s="25"/>
-      <c r="C310" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="D310" s="25"/>
-      <c r="E310" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F310" s="1" t="s">
+      <c r="H398" s="15" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="69" customHeight="1">
+      <c r="A399" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="B399" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C399" s="16"/>
+      <c r="D399" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H399" s="15" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="53" customHeight="1">
+      <c r="A400" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="B400" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="C400" s="16"/>
+      <c r="D400" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H400" s="15" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="51" customHeight="1">
+      <c r="A401" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="B401" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="C401" s="16"/>
+      <c r="D401" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H401" s="15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="31" customHeight="1">
+      <c r="A402" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B402" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C402" s="16"/>
+      <c r="D402" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F402" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G402" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H402" s="15" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="34" customHeight="1">
+      <c r="A403" s="21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B403" s="21" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C403" s="22"/>
+      <c r="D403" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="G403" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H403" s="23" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="29" customHeight="1">
+      <c r="A404" s="21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B404" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C404" s="16"/>
+      <c r="D404" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F404" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H404" s="23" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="19" customHeight="1">
+      <c r="A405" s="15" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B405" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C405" s="16"/>
+      <c r="D405" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F405" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G405" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H405" s="21" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="121" customHeight="1">
+      <c r="A406" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B406" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C406" s="16"/>
+      <c r="D406" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G406" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H406" s="15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="19" customHeight="1">
+      <c r="A407" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B407" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C407" s="16"/>
+      <c r="D407" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E407" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G310" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I310" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="J310" s="27"/>
-    </row>
-    <row r="311" spans="1:10" ht="26" customHeight="1">
-      <c r="A311" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="B311" s="25"/>
-      <c r="C311" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="D311" s="25"/>
-      <c r="E311" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G311" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="H311" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="I311" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="J311" s="27"/>
-    </row>
-    <row r="312" spans="1:10" ht="19" customHeight="1">
-      <c r="A312" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="B312" s="17"/>
-      <c r="C312" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="D312" s="17"/>
-      <c r="E312" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G312" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="H312" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I312" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="J312" s="25"/>
-    </row>
-    <row r="313" spans="1:10" ht="19" customHeight="1">
-      <c r="A313" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="B313" s="17"/>
-      <c r="C313" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="D313" s="17"/>
-      <c r="E313" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G313" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="H313" s="7" t="s">
+      <c r="F407" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G407" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="H407" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="33" customHeight="1">
+      <c r="A408" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B408" s="21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C408" s="22"/>
+      <c r="D408" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H408" s="23" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="55" customHeight="1">
+      <c r="A409" s="15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B409" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C409" s="22"/>
+      <c r="D409" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F409" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G409" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H409" s="23" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="58" customHeight="1">
+      <c r="A410" s="15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B410" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C410" s="22"/>
+      <c r="D410" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F410" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G410" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I313" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="J313" s="25"/>
-    </row>
-    <row r="314" spans="1:10" ht="26" customHeight="1">
-      <c r="A314" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="B314" s="25"/>
-      <c r="C314" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="D314" s="17"/>
-      <c r="E314" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G314" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="H314" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="I314" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="J314" s="27"/>
-    </row>
-    <row r="315" spans="1:10" ht="19" customHeight="1">
-      <c r="A315" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="B315" s="25"/>
-      <c r="C315" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="D315" s="17"/>
-      <c r="E315" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="H315" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I315" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="J315" s="25"/>
-    </row>
-    <row r="316" spans="1:10" ht="26" customHeight="1">
-      <c r="A316" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B316" s="25"/>
-      <c r="C316" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="D316" s="17"/>
-      <c r="E316" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F316" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="G316" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="H316" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="I316" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="J316" s="27"/>
-    </row>
-    <row r="317" spans="1:10" ht="33" customHeight="1">
-      <c r="A317" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="B317" s="25"/>
-      <c r="C317" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="D317" s="17"/>
-      <c r="E317" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="G317" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="H317" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I317" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="J317" s="27"/>
-    </row>
-    <row r="318" spans="1:10" ht="26" customHeight="1">
-      <c r="A318" s="16" t="s">
-        <v>640</v>
-      </c>
-      <c r="B318" s="17"/>
-      <c r="C318" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="D318" s="17"/>
-      <c r="E318" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="G318" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="H318" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I318" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="J318" s="27"/>
-    </row>
-    <row r="319" spans="1:10" ht="24" customHeight="1">
-      <c r="A319" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="B319" s="17"/>
-      <c r="C319" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="D319" s="17"/>
-      <c r="E319" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="H319" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I319" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="J319" s="17"/>
-    </row>
-    <row r="320" spans="1:10" ht="26" customHeight="1">
-      <c r="A320" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="B320" s="17"/>
-      <c r="C320" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="D320" s="17"/>
-      <c r="E320" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G320" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="H320" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I320" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="J320" s="27"/>
-    </row>
-    <row r="321" spans="1:10" ht="35" customHeight="1">
-      <c r="A321" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="B321" s="25"/>
-      <c r="C321" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="D321" s="17"/>
-      <c r="E321" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="F321" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G321" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="H321" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="I321" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="J321" s="27"/>
-    </row>
-    <row r="322" spans="1:10" ht="35" customHeight="1">
-      <c r="A322" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B322" s="25"/>
-      <c r="C322" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="D322" s="25"/>
-      <c r="E322" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F322" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G322" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="H322" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I322" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="J322" s="27"/>
-    </row>
-    <row r="323" spans="1:10" ht="35" customHeight="1">
-      <c r="A323" s="24" t="s">
-        <v>666</v>
-      </c>
-      <c r="B323" s="25"/>
-      <c r="C323" s="24" t="s">
-        <v>667</v>
-      </c>
-      <c r="D323" s="25"/>
-      <c r="E323" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F323" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G323" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="H323" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="I323" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="J323" s="27"/>
-    </row>
-    <row r="324" spans="1:10" ht="35" customHeight="1">
-      <c r="A324" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="B324" s="25"/>
-      <c r="C324" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D324" s="25"/>
-      <c r="E324" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G324" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="H324" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I324" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="J324" s="27"/>
-    </row>
-    <row r="325" spans="1:10" ht="35" customHeight="1">
-      <c r="A325" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B325" s="25"/>
-      <c r="C325" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="D325" s="25"/>
-      <c r="E325" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="F325" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G325" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="H325" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I325" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="J325" s="27"/>
-    </row>
-    <row r="326" spans="1:10" ht="35" customHeight="1">
-      <c r="A326" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B326" s="25"/>
-      <c r="C326" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="D326" s="25"/>
-      <c r="E326" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G326" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="H326" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="I326" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="J326" s="27"/>
-    </row>
-    <row r="327" spans="1:10" ht="35" customHeight="1">
-      <c r="A327" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="B327" s="25"/>
-      <c r="C327" s="24" t="s">
-        <v>683</v>
-      </c>
-      <c r="D327" s="25"/>
-      <c r="E327" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="G327" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="H327" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I327" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="J327" s="27"/>
-    </row>
-    <row r="328" spans="1:10" ht="26" customHeight="1">
-      <c r="A328" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="B328" s="17"/>
-      <c r="C328" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="D328" s="17"/>
-      <c r="E328" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G328" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="H328" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I328" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="J328" s="27"/>
-    </row>
-    <row r="329" spans="1:10" ht="6" customHeight="1">
-      <c r="A329" s="16"/>
-      <c r="B329" s="32"/>
-      <c r="C329" s="32"/>
-      <c r="D329" s="32"/>
-      <c r="E329" s="32"/>
-      <c r="F329" s="32"/>
-      <c r="G329" s="32"/>
-      <c r="H329" s="32"/>
-      <c r="I329" s="32"/>
-      <c r="J329" s="17"/>
-    </row>
-    <row r="330" spans="1:10" ht="6" customHeight="1">
-      <c r="A330" s="33"/>
-      <c r="B330" s="34"/>
-      <c r="C330" s="34"/>
-      <c r="D330" s="34"/>
-      <c r="E330" s="34"/>
-      <c r="F330" s="34"/>
-      <c r="G330" s="34"/>
-      <c r="H330" s="34"/>
-      <c r="I330" s="34"/>
-      <c r="J330" s="35"/>
-    </row>
-    <row r="331" spans="1:10" ht="37" customHeight="1">
-      <c r="A331" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B331" s="19"/>
-      <c r="C331" s="19"/>
-      <c r="D331" s="19"/>
-      <c r="E331" s="19"/>
-      <c r="F331" s="19"/>
-      <c r="G331" s="19"/>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
-    </row>
-    <row r="332" spans="1:10" ht="6" customHeight="1">
-      <c r="A332" s="21" t="s">
-        <v>693</v>
-      </c>
-      <c r="B332" s="22"/>
-      <c r="C332" s="22"/>
-      <c r="D332" s="22"/>
-      <c r="E332" s="22"/>
-      <c r="F332" s="22"/>
-      <c r="G332" s="22"/>
-      <c r="H332" s="22"/>
-      <c r="I332" s="22"/>
-      <c r="J332" s="23"/>
-    </row>
-    <row r="333" spans="1:10" ht="47" customHeight="1">
-      <c r="A333" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="B333" s="17"/>
-      <c r="C333" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="D333" s="17"/>
-      <c r="E333" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="H333" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I333" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="J333" s="17"/>
-    </row>
-    <row r="334" spans="1:10" ht="28" customHeight="1">
-      <c r="A334" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="B334" s="17"/>
-      <c r="C334" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="D334" s="17"/>
-      <c r="E334" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I334" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="J334" s="17"/>
-    </row>
-    <row r="335" spans="1:10" ht="43" customHeight="1">
-      <c r="A335" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="B335" s="17"/>
-      <c r="C335" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="D335" s="17"/>
-      <c r="E335" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G335" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="H335" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I335" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="J335" s="17"/>
-    </row>
-    <row r="336" spans="1:10" ht="52" customHeight="1">
-      <c r="A336" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="B336" s="17"/>
-      <c r="C336" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="D336" s="17"/>
-      <c r="E336" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G336" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="H336" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I336" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="J336" s="17"/>
-    </row>
-    <row r="337" spans="1:10" ht="31" customHeight="1">
-      <c r="A337" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="B337" s="17"/>
-      <c r="C337" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="D337" s="17"/>
-      <c r="E337" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I337" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="J337" s="17"/>
-    </row>
-    <row r="338" spans="1:10" ht="19" customHeight="1">
-      <c r="A338" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="B338" s="17"/>
-      <c r="C338" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="D338" s="17"/>
-      <c r="E338" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I338" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="J338" s="17"/>
-    </row>
-    <row r="339" spans="1:10" ht="36" customHeight="1">
-      <c r="A339" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B339" s="17"/>
-      <c r="C339" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="D339" s="17"/>
-      <c r="E339" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="H339" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="I339" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="J339" s="17"/>
-    </row>
-    <row r="340" spans="1:10" ht="52" customHeight="1">
-      <c r="A340" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B340" s="17"/>
-      <c r="C340" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="D340" s="17"/>
-      <c r="E340" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="H340" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I340" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="J340" s="17"/>
-    </row>
-    <row r="341" spans="1:10" ht="25" customHeight="1">
-      <c r="A341" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="B341" s="17"/>
-      <c r="C341" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="D341" s="17"/>
-      <c r="E341" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H341" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I341" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="J341" s="17"/>
-    </row>
-    <row r="342" spans="1:10" ht="52" customHeight="1">
-      <c r="A342" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="B342" s="17"/>
-      <c r="C342" s="16" t="s">
-        <v>734</v>
-      </c>
-      <c r="D342" s="17"/>
-      <c r="E342" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="H342" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I342" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J342" s="17"/>
-    </row>
-    <row r="343" spans="1:10" ht="19" customHeight="1">
-      <c r="A343" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="B343" s="17"/>
-      <c r="C343" s="16" t="s">
-        <v>737</v>
-      </c>
-      <c r="D343" s="17"/>
-      <c r="E343" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="H343" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I343" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="J343" s="17"/>
-    </row>
-    <row r="344" spans="1:10" ht="13" customHeight="1">
-      <c r="A344" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B344" s="17"/>
-      <c r="C344" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="D344" s="17"/>
-      <c r="E344" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="H344" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I344" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="J344" s="17"/>
-    </row>
-    <row r="345" spans="1:10" ht="13" customHeight="1">
-      <c r="A345" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="B345" s="17"/>
-      <c r="C345" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="D345" s="17"/>
-      <c r="E345" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G345" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H345" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I345" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="J345" s="17"/>
-    </row>
-    <row r="346" spans="1:10" ht="13" customHeight="1">
-      <c r="A346" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="B346" s="17"/>
-      <c r="C346" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="D346" s="17"/>
-      <c r="E346" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="H346" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I346" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="J346" s="17"/>
-    </row>
-    <row r="347" spans="1:10" ht="35" customHeight="1">
-      <c r="A347" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="B347" s="17"/>
-      <c r="C347" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="D347" s="17"/>
-      <c r="E347" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="H347" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I347" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="J347" s="17"/>
-    </row>
-    <row r="348" spans="1:10" ht="30" customHeight="1">
-      <c r="A348" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="B348" s="17"/>
-      <c r="C348" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="D348" s="17"/>
-      <c r="E348" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="H348" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I348" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="J348" s="17"/>
-    </row>
-    <row r="349" spans="1:10" ht="52" customHeight="1">
-      <c r="A349" s="16" t="s">
-        <v>757</v>
-      </c>
-      <c r="B349" s="17"/>
-      <c r="C349" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="D349" s="17"/>
-      <c r="E349" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="H349" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="I349" s="16" t="s">
-        <v>760</v>
-      </c>
-      <c r="J349" s="17"/>
-    </row>
-    <row r="350" spans="1:10" ht="39" customHeight="1">
-      <c r="A350" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="B350" s="17"/>
-      <c r="C350" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="D350" s="17"/>
-      <c r="E350" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G350" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="H350" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I350" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="J350" s="17"/>
-    </row>
-    <row r="351" spans="1:10" ht="39" customHeight="1">
-      <c r="A351" s="16" t="s">
-        <v>768</v>
-      </c>
-      <c r="B351" s="17"/>
-      <c r="C351" s="16" t="s">
-        <v>769</v>
-      </c>
-      <c r="D351" s="17"/>
-      <c r="E351" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G351" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="H351" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I351" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="J351" s="17"/>
-    </row>
-    <row r="352" spans="1:10" ht="26" customHeight="1">
-      <c r="A352" s="16" t="s">
-        <v>773</v>
-      </c>
-      <c r="B352" s="17"/>
-      <c r="C352" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="D352" s="17"/>
-      <c r="E352" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="G352" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="H352" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I352" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="J352" s="17"/>
-    </row>
-    <row r="353" spans="1:10" ht="34" customHeight="1">
-      <c r="A353" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="B353" s="17"/>
-      <c r="C353" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="D353" s="17"/>
-      <c r="E353" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="H353" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="I353" s="16" t="s">
-        <v>785</v>
-      </c>
-      <c r="J353" s="17"/>
-    </row>
-    <row r="354" spans="1:10" ht="67" customHeight="1">
-      <c r="A354" s="26" t="s">
-        <v>786</v>
-      </c>
-      <c r="B354" s="27"/>
-      <c r="C354" s="26" t="s">
-        <v>787</v>
-      </c>
-      <c r="D354" s="27"/>
-      <c r="E354" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="I354" s="16" t="s">
-        <v>792</v>
-      </c>
-      <c r="J354" s="17"/>
-    </row>
-    <row r="355" spans="1:10" ht="39" customHeight="1">
-      <c r="A355" s="16" t="s">
-        <v>793</v>
-      </c>
-      <c r="B355" s="17"/>
-      <c r="C355" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="D355" s="17"/>
-      <c r="E355" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G355" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="H355" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I355" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J355" s="17"/>
-    </row>
-    <row r="356" spans="1:10" ht="39" customHeight="1">
-      <c r="A356" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="B356" s="17"/>
-      <c r="C356" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="D356" s="17"/>
-      <c r="E356" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G356" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="H356" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I356" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="J356" s="17"/>
-    </row>
-    <row r="357" spans="1:10" ht="39" customHeight="1">
-      <c r="A357" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="B357" s="17"/>
-      <c r="C357" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="D357" s="17"/>
-      <c r="E357" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="F357" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="G357" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="H357" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="I357" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="J357" s="17"/>
-    </row>
-    <row r="358" spans="1:10" ht="88" customHeight="1">
-      <c r="A358" s="24" t="s">
-        <v>807</v>
-      </c>
-      <c r="B358" s="25"/>
-      <c r="C358" s="26" t="s">
-        <v>808</v>
-      </c>
-      <c r="D358" s="27"/>
-      <c r="E358" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="F358" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G358" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="H358" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I358" s="26" t="s">
-        <v>811</v>
-      </c>
-      <c r="J358" s="27"/>
-    </row>
-    <row r="359" spans="1:10" ht="88" customHeight="1">
-      <c r="A359" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="B359" s="25"/>
-      <c r="C359" s="24" t="s">
-        <v>813</v>
-      </c>
-      <c r="D359" s="25"/>
-      <c r="E359" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="F359" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="G359" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="H359" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="I359" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="J359" s="27"/>
-    </row>
-    <row r="360" spans="1:10" ht="19" customHeight="1">
-      <c r="A360" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="B360" s="25"/>
-      <c r="C360" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="D360" s="17"/>
-      <c r="E360" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G360" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="H360" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I360" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="J360" s="25"/>
-    </row>
-    <row r="361" spans="1:10" ht="38" customHeight="1">
-      <c r="A361" s="16" t="s">
-        <v>821</v>
-      </c>
-      <c r="B361" s="17"/>
-      <c r="C361" s="16" t="s">
-        <v>822</v>
-      </c>
-      <c r="D361" s="17"/>
-      <c r="E361" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="G361" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="H361" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="I361" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="J361" s="27"/>
-    </row>
-    <row r="362" spans="1:10" ht="29" customHeight="1">
-      <c r="A362" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="B362" s="25"/>
-      <c r="C362" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="D362" s="25"/>
-      <c r="E362" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="G362" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="H362" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I362" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="J362" s="27"/>
-    </row>
-    <row r="363" spans="1:10" ht="39" customHeight="1">
-      <c r="A363" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="B363" s="27"/>
-      <c r="C363" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="D363" s="27"/>
-      <c r="E363" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G363" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="H363" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I363" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="J363" s="27"/>
-    </row>
-    <row r="364" spans="1:10" ht="19" customHeight="1">
-      <c r="A364" s="16" t="s">
-        <v>837</v>
-      </c>
-      <c r="B364" s="17"/>
-      <c r="C364" s="16" t="s">
-        <v>838</v>
-      </c>
-      <c r="D364" s="17"/>
-      <c r="E364" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="G364" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="H364" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I364" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="J364" s="25"/>
-    </row>
-    <row r="365" spans="1:10" ht="53" customHeight="1">
-      <c r="A365" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="B365" s="25"/>
-      <c r="C365" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="D365" s="25"/>
-      <c r="E365" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="G365" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="H365" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="I365" s="26" t="s">
-        <v>847</v>
-      </c>
-      <c r="J365" s="27"/>
-    </row>
-    <row r="366" spans="1:10" ht="53" customHeight="1">
-      <c r="A366" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="B366" s="25"/>
-      <c r="C366" s="24" t="s">
-        <v>849</v>
-      </c>
-      <c r="D366" s="25"/>
-      <c r="E366" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="G366" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="H366" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I366" s="26" t="s">
-        <v>852</v>
-      </c>
-      <c r="J366" s="27"/>
-    </row>
-    <row r="367" spans="1:10" ht="99" customHeight="1">
-      <c r="A367" s="24" t="s">
-        <v>853</v>
-      </c>
-      <c r="B367" s="25"/>
-      <c r="C367" s="26" t="s">
-        <v>854</v>
-      </c>
-      <c r="D367" s="27"/>
-      <c r="E367" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="G367" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="H367" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I367" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="J367" s="27"/>
-    </row>
-    <row r="368" spans="1:10" ht="53" customHeight="1">
-      <c r="A368" s="24" t="s">
-        <v>859</v>
-      </c>
-      <c r="B368" s="25"/>
-      <c r="C368" s="16" t="s">
-        <v>860</v>
-      </c>
-      <c r="D368" s="17"/>
-      <c r="E368" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="F368" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="G368" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="H368" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I368" s="26" t="s">
-        <v>864</v>
-      </c>
-      <c r="J368" s="27"/>
-    </row>
-    <row r="369" spans="1:10" ht="26" customHeight="1">
-      <c r="A369" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="B369" s="17"/>
-      <c r="C369" s="24" t="s">
-        <v>866</v>
-      </c>
-      <c r="D369" s="25"/>
-      <c r="E369" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G369" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="H369" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I369" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="J369" s="27"/>
-    </row>
-    <row r="370" spans="1:10" ht="26" customHeight="1">
-      <c r="A370" s="24" t="s">
-        <v>870</v>
-      </c>
-      <c r="B370" s="25"/>
-      <c r="C370" s="16" t="s">
-        <v>871</v>
-      </c>
-      <c r="D370" s="17"/>
-      <c r="E370" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F370" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="G370" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H370" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I370" s="26" t="s">
-        <v>874</v>
-      </c>
-      <c r="J370" s="27"/>
-    </row>
-    <row r="371" spans="1:10" ht="33" customHeight="1">
-      <c r="A371" s="16" t="s">
-        <v>875</v>
-      </c>
-      <c r="B371" s="17"/>
-      <c r="C371" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="D371" s="25"/>
-      <c r="E371" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F371" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="G371" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="H371" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I371" s="26" t="s">
-        <v>879</v>
-      </c>
-      <c r="J371" s="27"/>
-    </row>
-    <row r="372" spans="1:10" ht="33" customHeight="1">
-      <c r="A372" s="16" t="s">
-        <v>880</v>
-      </c>
-      <c r="B372" s="17"/>
-      <c r="C372" s="24" t="s">
-        <v>881</v>
-      </c>
-      <c r="D372" s="25"/>
-      <c r="E372" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F372" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="G372" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="H372" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="I372" s="26" t="s">
-        <v>883</v>
-      </c>
-      <c r="J372" s="27"/>
-    </row>
-    <row r="373" spans="1:10" ht="33" customHeight="1">
-      <c r="A373" s="16" t="s">
-        <v>880</v>
-      </c>
-      <c r="B373" s="17"/>
-      <c r="C373" s="24" t="s">
-        <v>885</v>
-      </c>
-      <c r="D373" s="25"/>
-      <c r="E373" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F373" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="G373" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="H373" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I373" s="26" t="s">
-        <v>886</v>
-      </c>
-      <c r="J373" s="27"/>
-    </row>
-    <row r="374" spans="1:10" ht="33" customHeight="1">
-      <c r="A374" s="16" t="s">
-        <v>887</v>
-      </c>
-      <c r="B374" s="17"/>
-      <c r="C374" s="24" t="s">
-        <v>888</v>
-      </c>
-      <c r="D374" s="25"/>
-      <c r="E374" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="F374" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="G374" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="H374" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I374" s="26" t="s">
-        <v>891</v>
-      </c>
-      <c r="J374" s="27"/>
-    </row>
-    <row r="375" spans="1:10" ht="33" customHeight="1">
-      <c r="A375" s="16" t="s">
-        <v>892</v>
-      </c>
-      <c r="B375" s="17"/>
-      <c r="C375" s="24" t="s">
-        <v>893</v>
-      </c>
-      <c r="D375" s="25"/>
-      <c r="E375" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F375" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="G375" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="H375" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I375" s="26" t="s">
-        <v>895</v>
-      </c>
-      <c r="J375" s="27"/>
-    </row>
-    <row r="376" spans="1:10" ht="33" customHeight="1">
-      <c r="A376" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="B376" s="17"/>
-      <c r="C376" s="16" t="s">
-        <v>897</v>
-      </c>
-      <c r="D376" s="17"/>
-      <c r="E376" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="F376" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="G376" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="H376" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I376" s="26" t="s">
-        <v>900</v>
-      </c>
-      <c r="J376" s="27"/>
-    </row>
-    <row r="377" spans="1:10" ht="33" customHeight="1">
-      <c r="A377" s="16" t="s">
-        <v>901</v>
-      </c>
-      <c r="B377" s="17"/>
-      <c r="C377" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="D377" s="17"/>
-      <c r="E377" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="G377" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="H377" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I377" s="26" t="s">
-        <v>904</v>
-      </c>
-      <c r="J377" s="27"/>
-    </row>
-    <row r="378" spans="1:10" ht="19" customHeight="1">
-      <c r="A378" s="24" t="s">
-        <v>905</v>
-      </c>
-      <c r="B378" s="25"/>
-      <c r="C378" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="D378" s="17"/>
-      <c r="E378" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="F378" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="G378" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="H378" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="I378" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="J378" s="25"/>
-    </row>
-    <row r="379" spans="1:10" ht="19" customHeight="1">
-      <c r="A379" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B379" s="25"/>
-      <c r="C379" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="D379" s="17"/>
-      <c r="E379" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="G379" s="7" t="s">
-        <v>912</v>
-      </c>
-      <c r="H379" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="I379" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="J379" s="25"/>
-    </row>
-    <row r="380" spans="1:10" ht="19" customHeight="1">
-      <c r="A380" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B380" s="17"/>
-      <c r="C380" s="16" t="s">
-        <v>914</v>
-      </c>
-      <c r="D380" s="17"/>
-      <c r="E380" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G380" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="H380" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I380" s="24" t="s">
-        <v>917</v>
-      </c>
-      <c r="J380" s="25"/>
-    </row>
-    <row r="381" spans="1:10" ht="19" customHeight="1">
-      <c r="A381" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B381" s="17"/>
-      <c r="C381" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="D381" s="17"/>
-      <c r="E381" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G381" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="H381" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="I381" s="24" t="s">
-        <v>920</v>
-      </c>
-      <c r="J381" s="25"/>
-    </row>
-    <row r="382" spans="1:10" ht="26" customHeight="1">
-      <c r="A382" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B382" s="25"/>
-      <c r="C382" s="16" t="s">
-        <v>921</v>
-      </c>
-      <c r="D382" s="17"/>
-      <c r="E382" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G382" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="H382" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I382" s="26" t="s">
-        <v>923</v>
-      </c>
-      <c r="J382" s="27"/>
-    </row>
-    <row r="383" spans="1:10" ht="19" customHeight="1">
-      <c r="A383" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B383" s="17"/>
-      <c r="C383" s="16" t="s">
-        <v>924</v>
-      </c>
-      <c r="D383" s="17"/>
-      <c r="E383" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F383" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G383" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="H383" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I383" s="24" t="s">
-        <v>926</v>
-      </c>
-      <c r="J383" s="25"/>
-    </row>
-    <row r="384" spans="1:10" ht="19" customHeight="1">
-      <c r="A384" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="B384" s="25"/>
-      <c r="C384" s="16" t="s">
-        <v>927</v>
-      </c>
-      <c r="D384" s="17"/>
-      <c r="E384" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G384" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="H384" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I384" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="J384" s="25"/>
-    </row>
-    <row r="385" spans="1:10" ht="19" customHeight="1">
-      <c r="A385" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="B385" s="17"/>
-      <c r="C385" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="D385" s="17"/>
-      <c r="E385" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G385" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="H385" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="I385" s="24" t="s">
-        <v>934</v>
-      </c>
-      <c r="J385" s="25"/>
-    </row>
-    <row r="386" spans="1:10" ht="19" customHeight="1">
-      <c r="A386" s="24" t="s">
-        <v>935</v>
-      </c>
-      <c r="B386" s="25"/>
-      <c r="C386" s="24" t="s">
-        <v>936</v>
-      </c>
-      <c r="D386" s="25"/>
-      <c r="E386" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="H386" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="I386" s="24" t="s">
-        <v>939</v>
-      </c>
-      <c r="J386" s="25"/>
-    </row>
-    <row r="387" spans="1:10" ht="32" customHeight="1">
-      <c r="A387" s="24" t="s">
-        <v>940</v>
-      </c>
-      <c r="B387" s="25"/>
-      <c r="C387" s="16" t="s">
-        <v>941</v>
-      </c>
-      <c r="D387" s="17"/>
-      <c r="E387" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="F387" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="G387" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="H387" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="I387" s="16" t="s">
-        <v>946</v>
-      </c>
-      <c r="J387" s="17"/>
-    </row>
-    <row r="388" spans="1:10" ht="6" customHeight="1">
-      <c r="A388" s="16"/>
-      <c r="B388" s="32"/>
-      <c r="C388" s="32"/>
-      <c r="D388" s="32"/>
-      <c r="E388" s="32"/>
-      <c r="F388" s="32"/>
-      <c r="G388" s="32"/>
-      <c r="H388" s="32"/>
-      <c r="I388" s="32"/>
-      <c r="J388" s="17"/>
-    </row>
-    <row r="389" spans="1:10" ht="37" customHeight="1">
-      <c r="A389" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B389" s="19"/>
-      <c r="C389" s="19"/>
-      <c r="D389" s="19"/>
-      <c r="E389" s="19"/>
-      <c r="F389" s="19"/>
-      <c r="G389" s="19"/>
-      <c r="H389" s="19"/>
-      <c r="I389" s="19"/>
-      <c r="J389" s="20"/>
-    </row>
-    <row r="390" spans="1:10" ht="6" customHeight="1">
-      <c r="A390" s="21" t="s">
-        <v>947</v>
-      </c>
-      <c r="B390" s="22"/>
-      <c r="C390" s="22"/>
-      <c r="D390" s="22"/>
-      <c r="E390" s="22"/>
-      <c r="F390" s="22"/>
-      <c r="G390" s="22"/>
-      <c r="H390" s="22"/>
-      <c r="I390" s="22"/>
-      <c r="J390" s="23"/>
-    </row>
-    <row r="391" spans="1:10" ht="41" customHeight="1">
-      <c r="A391" s="16" t="s">
-        <v>948</v>
-      </c>
-      <c r="B391" s="17"/>
-      <c r="C391" s="16" t="s">
-        <v>949</v>
-      </c>
-      <c r="D391" s="17"/>
-      <c r="E391" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="F391" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="G391" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H391" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="I391" s="16" t="s">
-        <v>952</v>
-      </c>
-      <c r="J391" s="17"/>
-    </row>
-    <row r="392" spans="1:10" ht="71" customHeight="1">
-      <c r="A392" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="B392" s="17"/>
-      <c r="C392" s="16" t="s">
-        <v>954</v>
-      </c>
-      <c r="D392" s="17"/>
-      <c r="E392" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="G392" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="H392" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I392" s="16" t="s">
-        <v>956</v>
-      </c>
-      <c r="J392" s="17"/>
-    </row>
-    <row r="393" spans="1:10" ht="39" customHeight="1">
-      <c r="A393" s="16" t="s">
-        <v>957</v>
-      </c>
-      <c r="B393" s="17"/>
-      <c r="C393" s="16" t="s">
-        <v>958</v>
-      </c>
-      <c r="D393" s="17"/>
-      <c r="E393" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="H393" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="I393" s="16" t="s">
-        <v>960</v>
-      </c>
-      <c r="J393" s="17"/>
-    </row>
-    <row r="394" spans="1:10" ht="37" customHeight="1">
-      <c r="A394" s="16" t="s">
-        <v>962</v>
-      </c>
-      <c r="B394" s="17"/>
-      <c r="C394" s="16" t="s">
-        <v>963</v>
-      </c>
-      <c r="D394" s="17"/>
-      <c r="E394" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="G394" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="H394" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I394" s="16" t="s">
-        <v>965</v>
-      </c>
-      <c r="J394" s="17"/>
-    </row>
-    <row r="395" spans="1:10" ht="39" customHeight="1">
-      <c r="A395" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="B395" s="17"/>
-      <c r="C395" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="D395" s="17"/>
-      <c r="E395" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G395" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="H395" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="I395" s="16" t="s">
-        <v>968</v>
-      </c>
-      <c r="J395" s="17"/>
-    </row>
-    <row r="396" spans="1:10" ht="26" customHeight="1">
-      <c r="A396" s="24" t="s">
-        <v>969</v>
-      </c>
-      <c r="B396" s="25"/>
-      <c r="C396" s="16" t="s">
-        <v>970</v>
-      </c>
-      <c r="D396" s="17"/>
-      <c r="E396" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="F396" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="G396" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="H396" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="I396" s="26" t="s">
-        <v>975</v>
-      </c>
-      <c r="J396" s="27"/>
-    </row>
-    <row r="397" spans="1:10" ht="26" customHeight="1">
-      <c r="A397" s="16" t="s">
-        <v>976</v>
-      </c>
-      <c r="B397" s="17"/>
-      <c r="C397" s="24" t="s">
-        <v>977</v>
-      </c>
-      <c r="D397" s="25"/>
-      <c r="E397" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="G397" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="H397" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I397" s="26" t="s">
-        <v>981</v>
-      </c>
-      <c r="J397" s="27"/>
-    </row>
-    <row r="398" spans="1:10" ht="46" customHeight="1">
-      <c r="A398" s="16" t="s">
-        <v>982</v>
-      </c>
-      <c r="B398" s="17"/>
-      <c r="C398" s="16" t="s">
-        <v>983</v>
-      </c>
-      <c r="D398" s="17"/>
-      <c r="E398" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="G398" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="H398" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I398" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="J398" s="17"/>
-    </row>
-    <row r="399" spans="1:10" ht="69" customHeight="1">
-      <c r="A399" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="B399" s="17"/>
-      <c r="C399" s="16" t="s">
-        <v>988</v>
-      </c>
-      <c r="D399" s="17"/>
-      <c r="E399" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="G399" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I399" s="16" t="s">
-        <v>991</v>
-      </c>
-      <c r="J399" s="17"/>
-    </row>
-    <row r="400" spans="1:10" ht="53" customHeight="1">
-      <c r="A400" s="16" t="s">
-        <v>992</v>
-      </c>
-      <c r="B400" s="17"/>
-      <c r="C400" s="16" t="s">
-        <v>993</v>
-      </c>
-      <c r="D400" s="17"/>
-      <c r="E400" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="G400" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I400" s="16" t="s">
-        <v>994</v>
-      </c>
-      <c r="J400" s="17"/>
-    </row>
-    <row r="401" spans="1:10" ht="51" customHeight="1">
-      <c r="A401" s="16" t="s">
-        <v>995</v>
-      </c>
-      <c r="B401" s="17"/>
-      <c r="C401" s="16" t="s">
-        <v>996</v>
-      </c>
-      <c r="D401" s="17"/>
-      <c r="E401" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="G401" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I401" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="J401" s="17"/>
-    </row>
-    <row r="402" spans="1:10" ht="31" customHeight="1">
-      <c r="A402" s="16" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B402" s="17"/>
-      <c r="C402" s="16" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D402" s="17"/>
-      <c r="E402" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G402" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H402" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I402" s="16" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J402" s="17"/>
-    </row>
-    <row r="403" spans="1:10" ht="34" customHeight="1">
-      <c r="A403" s="24" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B403" s="25"/>
-      <c r="C403" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D403" s="25"/>
-      <c r="E403" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G403" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="H403" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I403" s="26" t="s">
-        <v>909</v>
-      </c>
-      <c r="J403" s="27"/>
-    </row>
-    <row r="404" spans="1:10" ht="29" customHeight="1">
-      <c r="A404" s="24" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B404" s="25"/>
-      <c r="C404" s="16" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D404" s="17"/>
-      <c r="E404" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G404" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H404" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I404" s="26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J404" s="27"/>
-    </row>
-    <row r="405" spans="1:10" ht="19" customHeight="1">
-      <c r="A405" s="16" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B405" s="17"/>
-      <c r="C405" s="16" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D405" s="17"/>
-      <c r="E405" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F405" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G405" s="7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H405" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I405" s="24" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J405" s="25"/>
-    </row>
-    <row r="406" spans="1:10" ht="121" customHeight="1">
-      <c r="A406" s="16" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B406" s="17"/>
-      <c r="C406" s="16" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D406" s="17"/>
-      <c r="E406" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H406" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I406" s="16" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J406" s="17"/>
-    </row>
-    <row r="407" spans="1:10" ht="19" customHeight="1">
-      <c r="A407" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B407" s="17"/>
-      <c r="C407" s="16" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D407" s="17"/>
-      <c r="E407" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G407" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H407" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="I407" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="J407" s="25"/>
-    </row>
-    <row r="408" spans="1:10" ht="33" customHeight="1">
-      <c r="A408" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B408" s="27"/>
-      <c r="C408" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D408" s="25"/>
-      <c r="E408" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G408" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H408" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I408" s="26" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J408" s="27"/>
-    </row>
-    <row r="409" spans="1:10" ht="55" customHeight="1">
-      <c r="A409" s="16" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B409" s="17"/>
-      <c r="C409" s="24" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D409" s="25"/>
-      <c r="E409" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G409" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H409" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="I409" s="26" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J409" s="27"/>
-    </row>
-    <row r="410" spans="1:10" ht="58" customHeight="1">
-      <c r="A410" s="16" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B410" s="17"/>
-      <c r="C410" s="24" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D410" s="25"/>
-      <c r="E410" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G410" s="4" t="s">
+      <c r="H410" s="23" t="s">
         <v>1038</v>
       </c>
-      <c r="H410" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I410" s="26" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J410" s="27"/>
-    </row>
-    <row r="411" spans="1:10" ht="7" customHeight="1">
+    </row>
+    <row r="411" spans="1:8" ht="7" customHeight="1">
       <c r="A411" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="7" customHeight="1">
+    <row r="412" spans="1:8" ht="7" customHeight="1">
       <c r="A412" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="7" customHeight="1">
+    <row r="413" spans="1:8" ht="7" customHeight="1">
       <c r="A413" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="7" customHeight="1">
+    <row r="414" spans="1:8" ht="7" customHeight="1">
       <c r="A414" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="7" customHeight="1">
+    <row r="415" spans="1:8" ht="7" customHeight="1">
       <c r="A415" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="7" customHeight="1">
+    <row r="416" spans="1:8" ht="7" customHeight="1">
       <c r="A416" t="s">
         <v>1043</v>
       </c>
@@ -25380,182 +24941,174 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="7" customHeight="1">
+    <row r="593" spans="1:8" ht="7" customHeight="1">
       <c r="A593" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="7" customHeight="1">
+    <row r="594" spans="1:8" ht="7" customHeight="1">
       <c r="A594" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="7" customHeight="1">
+    <row r="595" spans="1:8" ht="7" customHeight="1">
       <c r="A595" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="7" customHeight="1">
+    <row r="596" spans="1:8" ht="7" customHeight="1">
       <c r="A596" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="7" customHeight="1">
+    <row r="597" spans="1:8" ht="7" customHeight="1">
       <c r="A597" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="7" customHeight="1">
+    <row r="598" spans="1:8" ht="7" customHeight="1">
       <c r="A598" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="7" customHeight="1">
+    <row r="599" spans="1:8" ht="7" customHeight="1">
       <c r="A599" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="7" customHeight="1">
+    <row r="600" spans="1:8" ht="7" customHeight="1">
       <c r="A600" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="7" customHeight="1">
+    <row r="601" spans="1:8" ht="7" customHeight="1">
       <c r="A601" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="7" customHeight="1">
+    <row r="602" spans="1:8" ht="7" customHeight="1">
       <c r="A602" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="7" customHeight="1">
+    <row r="603" spans="1:8" ht="7" customHeight="1">
       <c r="A603" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="7" customHeight="1">
+    <row r="604" spans="1:8" ht="7" customHeight="1">
       <c r="A604" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="7" customHeight="1">
+    <row r="605" spans="1:8" ht="7" customHeight="1">
       <c r="A605" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="7" customHeight="1">
+    <row r="606" spans="1:8" ht="7" customHeight="1">
       <c r="A606" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="7" customHeight="1">
+    <row r="607" spans="1:8" ht="7" customHeight="1">
       <c r="A607" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="36" customHeight="1">
-      <c r="A608" s="16" t="s">
+    <row r="608" spans="1:8" ht="36" customHeight="1">
+      <c r="A608" s="15" t="s">
         <v>1180</v>
       </c>
-      <c r="B608" s="17"/>
-      <c r="C608" s="16" t="s">
+      <c r="B608" s="15" t="s">
         <v>1181</v>
       </c>
-      <c r="D608" s="17"/>
+      <c r="C608" s="16"/>
+      <c r="D608" s="3" t="s">
+        <v>1182</v>
+      </c>
       <c r="E608" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F608" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="G608" s="4" t="s">
+      <c r="F608" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="H608" s="5" t="s">
+      <c r="G608" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I608" s="26" t="s">
+      <c r="H608" s="23" t="s">
         <v>1185</v>
       </c>
-      <c r="J608" s="27"/>
-    </row>
-    <row r="609" spans="1:10" ht="33" customHeight="1">
-      <c r="A609" s="26" t="s">
+    </row>
+    <row r="609" spans="1:8" ht="33" customHeight="1">
+      <c r="A609" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="B609" s="27"/>
-      <c r="C609" s="24" t="s">
+      <c r="B609" s="21" t="s">
         <v>1186</v>
       </c>
-      <c r="D609" s="25"/>
-      <c r="E609" s="3" t="s">
+      <c r="C609" s="22"/>
+      <c r="D609" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="F609" s="1" t="s">
+      <c r="E609" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="G609" s="4" t="s">
+      <c r="F609" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="H609" s="5" t="s">
+      <c r="G609" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I609" s="26" t="s">
+      <c r="H609" s="23" t="s">
         <v>1189</v>
       </c>
-      <c r="J609" s="27"/>
-    </row>
-    <row r="610" spans="1:10" ht="32" customHeight="1">
-      <c r="A610" s="26" t="s">
+    </row>
+    <row r="610" spans="1:8" ht="32" customHeight="1">
+      <c r="A610" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="B610" s="27"/>
-      <c r="C610" s="24" t="s">
+      <c r="B610" s="21" t="s">
         <v>1190</v>
       </c>
-      <c r="D610" s="25"/>
-      <c r="E610" s="3" t="s">
+      <c r="C610" s="22"/>
+      <c r="D610" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="F610" s="1" t="s">
+      <c r="E610" s="1" t="s">
         <v>731</v>
       </c>
+      <c r="F610" s="5" t="s">
+        <v>1192</v>
+      </c>
       <c r="G610" s="5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H610" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I610" s="26" t="s">
+      <c r="H610" s="23" t="s">
         <v>1193</v>
       </c>
-      <c r="J610" s="27"/>
-    </row>
-    <row r="611" spans="1:10" ht="12" customHeight="1">
+    </row>
+    <row r="611" spans="1:8" ht="12" customHeight="1">
       <c r="A611" s="12"/>
-      <c r="B611" s="36"/>
-      <c r="C611" s="37"/>
-      <c r="D611" s="36"/>
-      <c r="E611" s="38"/>
-      <c r="F611" s="38"/>
-      <c r="G611" s="38"/>
-      <c r="H611" s="38"/>
-      <c r="I611" s="37"/>
-    </row>
-    <row r="612" spans="1:10" ht="13" customHeight="1">
+      <c r="B611" s="32"/>
+      <c r="C611" s="31"/>
+      <c r="D611" s="33"/>
+      <c r="E611" s="33"/>
+      <c r="F611" s="33"/>
+      <c r="G611" s="33"/>
+      <c r="H611" s="32"/>
+    </row>
+    <row r="612" spans="1:8" ht="13" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="16"/>
-      <c r="C612" s="17"/>
-      <c r="D612" s="16"/>
-      <c r="E612" s="32"/>
-      <c r="F612" s="32"/>
-      <c r="G612" s="32"/>
-      <c r="H612" s="32"/>
-      <c r="I612" s="17"/>
-    </row>
-    <row r="613" spans="1:10" ht="14" customHeight="1">
+      <c r="C612" s="15"/>
+      <c r="D612" s="28"/>
+      <c r="E612" s="28"/>
+      <c r="F612" s="28"/>
+      <c r="G612" s="28"/>
+      <c r="H612" s="16"/>
+    </row>
+    <row r="613" spans="1:8" ht="14" customHeight="1">
       <c r="A613" t="s">
         <v>1194</v>
       </c>
